--- a/data/trans_orig/P1435_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2012-Habitat-trans_orig.xlsx
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,07%</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,24%</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,14%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,67%</t>
         </is>
       </c>
     </row>
@@ -1408,12 +1408,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,49%</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>96,02%</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -1968,12 +1968,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1989,12 +1989,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>97,59%</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -2248,12 +2248,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,79%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P1435_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2012-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>98,05%</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,21%</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1408,12 +1408,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>97,66%</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,35%</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>95,95%</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
@@ -1920,12 +1920,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -1968,12 +1968,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1989,12 +1989,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -2179,12 +2179,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2200,12 +2200,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -2248,12 +2248,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,7%</t>
         </is>
       </c>
     </row>
